--- a/mathTransformed/HMPSTT_(2015-10-12)_40_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-10-12)_40_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -484,6 +489,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H SSwandenahalli</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -511,6 +521,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S H L KshetraTiptur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -538,6 +553,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Govt. Junior CollegeBellavi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -565,6 +585,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Kenkere High School C N Halli</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -594,6 +619,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G P U CollegeH S Turuvekere</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -621,6 +651,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt Girls High SchoolCheluru Gubbi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -648,6 +683,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S Hanumanthapura</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -675,6 +715,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H P SchoolDoddagoraghattaTuruvekere</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -702,6 +747,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>U G H P SHethenahalli</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -729,6 +779,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H SGuleharive</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -756,6 +811,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S C N Halli</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -783,6 +843,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G J C Borana KaniveC N Hally</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -810,6 +875,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S BedathurMadhugiri</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -837,6 +907,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H SGowdanakatteTiptur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -864,6 +939,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>S R R H SRamanahalliC N Halli</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -891,6 +971,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H SKempanahalliKunigal</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -918,6 +1003,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G J C Bellavi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -945,6 +1035,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Bhoruka High SchoolShahapur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Yadagiri</t>
         </is>
       </c>
@@ -972,6 +1067,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H SHosurKunigal</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -999,6 +1099,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>S V P J CollegeB H Road</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Tiptur</t>
         </is>
       </c>
@@ -1014,7 +1119,8 @@
           <t>Tumkur.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>
@@ -1043,6 +1149,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S C N Hall</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1070,6 +1181,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S D HosahalliKunigal (t)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1097,6 +1213,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S V H S ThandagaTuruvekere</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1124,6 +1245,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Vidyaranya H S BommenahalliC N Halli</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1153,6 +1279,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G M H P SKyathasandva</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1180,6 +1311,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G P U C HuliyarKenkereC N Halli</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1207,6 +1343,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G J C Bellavi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1234,6 +1375,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S H TammadihallyC N Hally</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1261,6 +1407,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H SDurgadahally</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1288,6 +1439,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S KamalapuraC N Halli</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1315,6 +1471,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G J C AmruthurKunigal</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1342,6 +1503,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H SP H Colony</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1369,6 +1535,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>S G R H S AnekereTuruvekere</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1396,6 +1567,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H P S KondliGubbi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1423,6 +1599,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>S C H SHarenahally GateC N Hally</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1450,6 +1631,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H SHullenahalli</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1471,6 +1657,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Bhoruka English Medium SchoolShivapur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1498,6 +1689,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G J C KadabaGubbi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1525,6 +1721,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>S S A H S ModuruKunigal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1551,6 +1752,11 @@
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>S V A H SGollarahattiKunigal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Tumkur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-10-12)_40_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-10-12)_40_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Yadagiri</t>
+          <t>Yadgir</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tiptur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1119,10 +1119,9 @@
           <t>Tumkur.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1153,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1185,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1217,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1249,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1283,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1315,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1347,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1379,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1411,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1443,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1475,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1507,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1539,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1571,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1603,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1635,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1693,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1725,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1757,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
